--- a/Master/imports/Files/import_affiliates.xlsx
+++ b/Master/imports/Files/import_affiliates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\After life, death\MovieCreator\autoMovie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\MovieCreator\autoMovie\Master\imports\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE0E5DE-87CA-4A48-9C24-E5FAA023E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD35B2E-AB46-487D-BB7E-12FEEECD0C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2926141-53A8-49A3-BE6F-52FA794DAA75}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -55,564 +55,6 @@
   </si>
   <si>
     <t>uppercase</t>
-  </si>
-  <si>
-    <t>MariaGonzalez4029384756</t>
-  </si>
-  <si>
-    <t>LiamSmith2093847516</t>
-  </si>
-  <si>
-    <t>EmmaJohnson3094857201</t>
-  </si>
-  <si>
-    <t>OliverBrown4021938475</t>
-  </si>
-  <si>
-    <t>AvaJones5901834752</t>
-  </si>
-  <si>
-    <t>NoahGarcia4302189475</t>
-  </si>
-  <si>
-    <t>IsabellaMartinez5013948720</t>
-  </si>
-  <si>
-    <t>LucasRodriguez3402918576</t>
-  </si>
-  <si>
-    <t>MiaMartinez1230948576</t>
-  </si>
-  <si>
-    <t>EthanHernandez2301984756</t>
-  </si>
-  <si>
-    <t>SofiaLopez4901283756</t>
-  </si>
-  <si>
-    <t>AlexanderMoore9203847516</t>
-  </si>
-  <si>
-    <t>ChloeAnderson2984710345</t>
-  </si>
-  <si>
-    <t>LeoClark3094856721</t>
-  </si>
-  <si>
-    <t>HarperLewis4309281576</t>
-  </si>
-  <si>
-    <t>DanielRobinson2384710956</t>
-  </si>
-  <si>
-    <t>OliviaWalker5492038716</t>
-  </si>
-  <si>
-    <t>DavidKing4019283756</t>
-  </si>
-  <si>
-    <t>AmeliaScott5012938746</t>
-  </si>
-  <si>
-    <t>MateoHill3294857012</t>
-  </si>
-  <si>
-    <t>LaylaGreen4902381576</t>
-  </si>
-  <si>
-    <t>AidenAdams9304821576</t>
-  </si>
-  <si>
-    <t>EllaBaker4201938756</t>
-  </si>
-  <si>
-    <t>LucasCampbell1203948576</t>
-  </si>
-  <si>
-    <t>GraceGonzalez4021938576</t>
-  </si>
-  <si>
-    <t>MasonNelson5012938746</t>
-  </si>
-  <si>
-    <t>LilyCarter3401928576</t>
-  </si>
-  <si>
-    <t>BenjaminMitchell5901834726</t>
-  </si>
-  <si>
-    <t>ZoePerez3201948576</t>
-  </si>
-  <si>
-    <t>WilliamRoberts4302189756</t>
-  </si>
-  <si>
-    <t>CamilaTurner2394810576</t>
-  </si>
-  <si>
-    <t>ElijahPhillips4109283756</t>
-  </si>
-  <si>
-    <t>ScarlettEvans5039284716</t>
-  </si>
-  <si>
-    <t>LucasMurphy3201489576</t>
-  </si>
-  <si>
-    <t>AmeliaBell4302985716</t>
-  </si>
-  <si>
-    <t>HenryGray2193845076</t>
-  </si>
-  <si>
-    <t>PenelopeWood9203418576</t>
-  </si>
-  <si>
-    <t>SebastianCox5302984716</t>
-  </si>
-  <si>
-    <t>EllaMorgan4012938576</t>
-  </si>
-  <si>
-    <t>AriaFoster4301928756</t>
-  </si>
-  <si>
-    <t>JamesSanders2384710956</t>
-  </si>
-  <si>
-    <t>LilyBryant5092384716</t>
-  </si>
-  <si>
-    <t>MichaelAlexander3029184756</t>
-  </si>
-  <si>
-    <t>SophiaJenkins2193845076</t>
-  </si>
-  <si>
-    <t>GabrielRichardson4012983756</t>
-  </si>
-  <si>
-    <t>IsabellaStewart5938472016</t>
-  </si>
-  <si>
-    <t>OwenDiaz3201489576</t>
-  </si>
-  <si>
-    <t>ChloeWells2401938576</t>
-  </si>
-  <si>
-    <t>MasonPatterson3904821576</t>
-  </si>
-  <si>
-    <t>CharlotteHughes4109283756</t>
-  </si>
-  <si>
-    <t>EthanFlores5032984716</t>
-  </si>
-  <si>
-    <t>AbigailSimmons3201948576</t>
-  </si>
-  <si>
-    <t>JacksonCole3201489576</t>
-  </si>
-  <si>
-    <t>MiaLong4019283756</t>
-  </si>
-  <si>
-    <t>SamuelBarnes5901834726</t>
-  </si>
-  <si>
-    <t>HarperFisher3209481576</t>
-  </si>
-  <si>
-    <t>JosephEllis4902183756</t>
-  </si>
-  <si>
-    <t>ZoeHoward4302987516</t>
-  </si>
-  <si>
-    <t>ElijahWarren2193845076</t>
-  </si>
-  <si>
-    <t>HannahRussell4201938576</t>
-  </si>
-  <si>
-    <t>MateoMyers3401928576</t>
-  </si>
-  <si>
-    <t>LaylaFox5091834726</t>
-  </si>
-  <si>
-    <t>DavidHamilton3201948576</t>
-  </si>
-  <si>
-    <t>SofiaGriffin4021938576</t>
-  </si>
-  <si>
-    <t>LeoHayes5092384716</t>
-  </si>
-  <si>
-    <t>EmmaFord3201948576</t>
-  </si>
-  <si>
-    <t>OwenGraham4019283756</t>
-  </si>
-  <si>
-    <t>GraceSpencer2401938576</t>
-  </si>
-  <si>
-    <t>DanielButler4302987516</t>
-  </si>
-  <si>
-    <t>CamilaWatson2193845076</t>
-  </si>
-  <si>
-    <t>HarperBrooks5032984716</t>
-  </si>
-  <si>
-    <t>EthanChavez3201489576</t>
-  </si>
-  <si>
-    <t>OliviaSanders4201938576</t>
-  </si>
-  <si>
-    <t>WilliamJenkins5092384716</t>
-  </si>
-  <si>
-    <t>ScarlettWood3201948576</t>
-  </si>
-  <si>
-    <t>JamesCruz4019283756</t>
-  </si>
-  <si>
-    <t>IsabellaMurray3401928576</t>
-  </si>
-  <si>
-    <t>LucasTucker5901834726</t>
-  </si>
-  <si>
-    <t>MiaReed4302987516</t>
-  </si>
-  <si>
-    <t>MichaelSimmons3201489576</t>
-  </si>
-  <si>
-    <t>CharlotteWatson5039284716</t>
-  </si>
-  <si>
-    <t>MasonFoster3201948576</t>
-  </si>
-  <si>
-    <t>AriaGarcia5092384716</t>
-  </si>
-  <si>
-    <t>ElijahRamos3201489576</t>
-  </si>
-  <si>
-    <t>AmeliaPerry4019283756</t>
-  </si>
-  <si>
-    <t>LucasPeterson3401928576</t>
-  </si>
-  <si>
-    <t>OliviaBarnes5901834726</t>
-  </si>
-  <si>
-    <t>AidenHarris3201489576</t>
-  </si>
-  <si>
-    <t>SophiaLong4302987516</t>
-  </si>
-  <si>
-    <t>JamesReed2193845076</t>
-  </si>
-  <si>
-    <t>ChloeHayes5039284716</t>
-  </si>
-  <si>
-    <t>EthanFoster3201948576</t>
-  </si>
-  <si>
-    <t>GraceClark5092384716</t>
-  </si>
-  <si>
-    <t>LiamRivera3201489576</t>
-  </si>
-  <si>
-    <t>HarperCook4019283756</t>
-  </si>
-  <si>
-    <t>BenjaminRichardson3401928576</t>
-  </si>
-  <si>
-    <t>ZoeBell5901834726</t>
-  </si>
-  <si>
-    <t>DavidHughes4302987516</t>
-  </si>
-  <si>
-    <t>EmmaGreen3201948576</t>
-  </si>
-  <si>
-    <t>MateoFoster5039284716</t>
-  </si>
-  <si>
-    <t>MiaAdams5092384716</t>
-  </si>
-  <si>
-    <t>OliverWood3201489576</t>
-  </si>
-  <si>
-    <t>AvaBaker4019283756</t>
-  </si>
-  <si>
-    <t>EthanFlores3401928576</t>
-  </si>
-  <si>
-    <t>LilyNelson5901834726</t>
-  </si>
-  <si>
-    <t>NoahPerry4302987516</t>
-  </si>
-  <si>
-    <t>SophiaMorris3201489576</t>
-  </si>
-  <si>
-    <t>JamesCruz5039284716</t>
-  </si>
-  <si>
-    <t>HarperReed5092384716</t>
-  </si>
-  <si>
-    <t>MasonBell3201948576</t>
-  </si>
-  <si>
-    <t>OliviaWright4019283756</t>
-  </si>
-  <si>
-    <t>JacksonWatson3401928576</t>
-  </si>
-  <si>
-    <t>GraceCooper5901834726</t>
-  </si>
-  <si>
-    <t>LiamPeterson4302987516</t>
-  </si>
-  <si>
-    <t>ZoeMurphy3201489576</t>
-  </si>
-  <si>
-    <t>MiaHarris5092384716</t>
-  </si>
-  <si>
-    <t>OliverRichardson3201948576</t>
-  </si>
-  <si>
-    <t>AriaDiaz4019283756</t>
-  </si>
-  <si>
-    <t>EthanMorgan3401928576</t>
-  </si>
-  <si>
-    <t>AmeliaGreen5901834726</t>
-  </si>
-  <si>
-    <t>NoahLong4302987516</t>
-  </si>
-  <si>
-    <t>ChloeWood3201489576</t>
-  </si>
-  <si>
-    <t>JamesSimmons5039284716</t>
-  </si>
-  <si>
-    <t>HarperClark5092384716</t>
-  </si>
-  <si>
-    <t>LiamMorris3201948576</t>
-  </si>
-  <si>
-    <t>OliviaSanders4019283756</t>
-  </si>
-  <si>
-    <t>DavidPerry3401928576</t>
-  </si>
-  <si>
-    <t>ZoeCooper5901834726</t>
-  </si>
-  <si>
-    <t>EthanWatson4302987516</t>
-  </si>
-  <si>
-    <t>LilyReed3201489576</t>
-  </si>
-  <si>
-    <t>JacksonPeterson5039284716</t>
-  </si>
-  <si>
-    <t>EmmaFlores5092384716</t>
-  </si>
-  <si>
-    <t>AlexanderRichardson3201948576</t>
-  </si>
-  <si>
-    <t>AmeliaCook4019283756</t>
-  </si>
-  <si>
-    <t>AidenMurphy3401928576</t>
-  </si>
-  <si>
-    <t>GraceFoster5901834726</t>
-  </si>
-  <si>
-    <t>BenjaminWood4302987516</t>
-  </si>
-  <si>
-    <t>ZoeNelson3201489576</t>
-  </si>
-  <si>
-    <t>MiaMorris5039284716</t>
-  </si>
-  <si>
-    <t>EthanDiaz5092384716</t>
-  </si>
-  <si>
-    <t>LucasGreen3201948576</t>
-  </si>
-  <si>
-    <t>ChloeSanders4019283756</t>
-  </si>
-  <si>
-    <t>NoahCooper3401928576</t>
-  </si>
-  <si>
-    <t>LilyBell5901834726</t>
-  </si>
-  <si>
-    <t>JamesWatson4302987516</t>
-  </si>
-  <si>
-    <t>SophiaPerry3201489576</t>
-  </si>
-  <si>
-    <t>LiamClark5039284716</t>
-  </si>
-  <si>
-    <t>HarperNelson5092384716</t>
-  </si>
-  <si>
-    <t>EthanRichardson3201948576</t>
-  </si>
-  <si>
-    <t>AvaMurphy4019283756</t>
-  </si>
-  <si>
-    <t>AlexanderLong3401928576</t>
-  </si>
-  <si>
-    <t>GraceMorris5901834726</t>
-  </si>
-  <si>
-    <t>NoahGreen4302987516</t>
-  </si>
-  <si>
-    <t>MiaCook3201489576</t>
-  </si>
-  <si>
-    <t>ZoeFoster5039284716</t>
-  </si>
-  <si>
-    <t>LucasClark5092384716</t>
-  </si>
-  <si>
-    <t>AmeliaSanders3201948576</t>
-  </si>
-  <si>
-    <t>EthanRichardson4019283756</t>
-  </si>
-  <si>
-    <t>ChloeNelson3401928576</t>
-  </si>
-  <si>
-    <t>JamesMorris5901834726</t>
-  </si>
-  <si>
-    <t>HarperPerry4302987516</t>
-  </si>
-  <si>
-    <t>LiamDiaz3201489576</t>
-  </si>
-  <si>
-    <t>OliviaWood5039284716</t>
-  </si>
-  <si>
-    <t>DavidNelson5092384716</t>
-  </si>
-  <si>
-    <t>GraceFoster3201948576</t>
-  </si>
-  <si>
-    <t>LucasMurphy4019283756</t>
-  </si>
-  <si>
-    <t>MiaClark3401928576</t>
-  </si>
-  <si>
-    <t>AlexanderPerry5901834726</t>
-  </si>
-  <si>
-    <t>AriaNelson4302987516</t>
-  </si>
-  <si>
-    <t>OliverFoster3201489576</t>
-  </si>
-  <si>
-    <t>HarperWood5039284716</t>
-  </si>
-  <si>
-    <t>EmmaMurphy5092384716</t>
-  </si>
-  <si>
-    <t>NoahClark3201948576</t>
-  </si>
-  <si>
-    <t>SophiaPerry4019283756</t>
-  </si>
-  <si>
-    <t>LiamNelson3401928576</t>
-  </si>
-  <si>
-    <t>ChloeDiaz5901834726</t>
-  </si>
-  <si>
-    <t>AidenWood4302987516</t>
-  </si>
-  <si>
-    <t>GraceFoster3201489576</t>
-  </si>
-  <si>
-    <t>JamesMurphy5039284716</t>
-  </si>
-  <si>
-    <t>MiaNelson5092384716</t>
-  </si>
-  <si>
-    <t>LucasClark3201948576</t>
-  </si>
-  <si>
-    <t>EthanDiaz3401928576</t>
-  </si>
-  <si>
-    <t>OliviaMorris5901834726</t>
-  </si>
-  <si>
-    <t>DavidFoster4302987516</t>
-  </si>
-  <si>
-    <t>GraceClark3201489576</t>
-  </si>
-  <si>
-    <t>LiamPerry5039284716</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +501,7 @@
   <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,15 +537,13 @@
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE(C2,"@gmail.com")</f>
-        <v>MariaGonzalez4029384756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B2" t="str">
         <f>LOWER(A2)</f>
-        <v>mariagonzalez4029384756@gmail.com</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,15 +555,13 @@
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>LiamSmith2093847516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="1">LOWER(A3)</f>
-        <v>liamsmith2093847516@gmail.com</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1135,15 +573,13 @@
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>EmmaJohnson3094857201@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="1"/>
-        <v>emmajohnson3094857201@gmail.com</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1156,15 +592,13 @@
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OliverBrown4021938475@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="1"/>
-        <v>oliverbrown4021938475@gmail.com</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1176,15 +610,13 @@
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AvaJones5901834752@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>avajones5901834752@gmail.com</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1196,15 +628,13 @@
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>NoahGarcia4302189475@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>noahgarcia4302189475@gmail.com</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1216,15 +646,13 @@
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>IsabellaMartinez5013948720@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>isabellamartinez5013948720@gmail.com</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1236,15 +664,13 @@
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>LucasRodriguez3402918576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>lucasrodriguez3402918576@gmail.com</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1256,15 +682,13 @@
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MiaMartinez1230948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>miamartinez1230948576@gmail.com</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1276,15 +700,13 @@
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>EthanHernandez2301984756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>ethanhernandez2301984756@gmail.com</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1296,15 +718,13 @@
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>SofiaLopez4901283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>sofialopez4901283756@gmail.com</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1316,15 +736,13 @@
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AlexanderMoore9203847516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>alexandermoore9203847516@gmail.com</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1336,15 +754,13 @@
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ChloeAnderson2984710345@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>chloeanderson2984710345@gmail.com</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1356,15 +772,13 @@
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>LeoClark3094856721@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>leoclark3094856721@gmail.com</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1376,15 +790,13 @@
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>HarperLewis4309281576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>harperlewis4309281576@gmail.com</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1396,15 +808,13 @@
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>DanielRobinson2384710956@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v>danielrobinson2384710956@gmail.com</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1416,15 +826,13 @@
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>OliviaWalker5492038716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>oliviawalker5492038716@gmail.com</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1436,15 +844,13 @@
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>DavidKing4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>davidking4019283756@gmail.com</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1456,15 +862,13 @@
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AmeliaScott5012938746@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>ameliascott5012938746@gmail.com</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
@@ -1476,15 +880,13 @@
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MateoHill3294857012@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>mateohill3294857012@gmail.com</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
@@ -1496,15 +898,13 @@
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>LaylaGreen4902381576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>laylagreen4902381576@gmail.com</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1516,15 +916,13 @@
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AidenAdams9304821576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>aidenadams9304821576@gmail.com</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
@@ -1536,15 +934,13 @@
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>EllaBaker4201938756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>ellabaker4201938756@gmail.com</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1556,15 +952,13 @@
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>LucasCampbell1203948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v>lucascampbell1203948576@gmail.com</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
@@ -1576,15 +970,13 @@
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>GraceGonzalez4021938576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v>gracegonzalez4021938576@gmail.com</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1596,15 +988,13 @@
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>MasonNelson5012938746@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v>masonnelson5012938746@gmail.com</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="5" t="s">
         <v>3</v>
       </c>
@@ -1616,15 +1006,13 @@
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>LilyCarter3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v>lilycarter3401928576@gmail.com</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="5" t="s">
         <v>3</v>
       </c>
@@ -1636,15 +1024,13 @@
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>BenjaminMitchell5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v>benjaminmitchell5901834726@gmail.com</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1656,15 +1042,13 @@
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ZoePerez3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v>zoeperez3201948576@gmail.com</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
@@ -1676,15 +1060,13 @@
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>WilliamRoberts4302189756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v>williamroberts4302189756@gmail.com</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
@@ -1696,15 +1078,13 @@
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CamilaTurner2394810576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v>camilaturner2394810576@gmail.com</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1716,15 +1096,13 @@
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ElijahPhillips4109283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v>elijahphillips4109283756@gmail.com</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1736,15 +1114,13 @@
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A65" si="2">CONCATENATE(C34,"@gmail.com")</f>
-        <v>ScarlettEvans5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v>scarlettevans5039284716@gmail.com</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1756,15 +1132,13 @@
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>LucasMurphy3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v>lucasmurphy3201489576@gmail.com</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="5" t="s">
         <v>3</v>
       </c>
@@ -1776,15 +1150,13 @@
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>AmeliaBell4302985716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>ameliabell4302985716@gmail.com</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="5" t="s">
         <v>3</v>
       </c>
@@ -1796,15 +1168,13 @@
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>HenryGray2193845076@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>henrygray2193845076@gmail.com</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
@@ -1816,15 +1186,13 @@
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>PenelopeWood9203418576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>penelopewood9203418576@gmail.com</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1836,15 +1204,13 @@
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>SebastianCox5302984716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>sebastiancox5302984716@gmail.com</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="5" t="s">
         <v>3</v>
       </c>
@@ -1856,15 +1222,13 @@
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>EllaMorgan4012938576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>ellamorgan4012938576@gmail.com</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C40" s="8"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1876,15 +1240,13 @@
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>AriaFoster4301928756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>ariafoster4301928756@gmail.com</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C41" s="8"/>
       <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
@@ -1896,15 +1258,13 @@
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>JamesSanders2384710956@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>jamessanders2384710956@gmail.com</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="5" t="s">
         <v>3</v>
       </c>
@@ -1916,15 +1276,13 @@
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>LilyBryant5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>lilybryant5092384716@gmail.com</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="5" t="s">
         <v>3</v>
       </c>
@@ -1936,15 +1294,13 @@
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>MichaelAlexander3029184756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>michaelalexander3029184756@gmail.com</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1956,15 +1312,13 @@
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>SophiaJenkins2193845076@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>sophiajenkins2193845076@gmail.com</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
@@ -1976,15 +1330,13 @@
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>GabrielRichardson4012983756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>gabrielrichardson4012983756@gmail.com</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="5" t="s">
         <v>3</v>
       </c>
@@ -1996,15 +1348,13 @@
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>IsabellaStewart5938472016@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>isabellastewart5938472016@gmail.com</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C47" s="8"/>
       <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
@@ -2016,15 +1366,13 @@
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>OwenDiaz3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>owendiaz3201489576@gmail.com</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C48" s="8"/>
       <c r="D48" s="5" t="s">
         <v>3</v>
       </c>
@@ -2036,15 +1384,13 @@
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>ChloeWells2401938576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>chloewells2401938576@gmail.com</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C49" s="8"/>
       <c r="D49" s="5" t="s">
         <v>3</v>
       </c>
@@ -2056,15 +1402,13 @@
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>MasonPatterson3904821576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>masonpatterson3904821576@gmail.com</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C50" s="8"/>
       <c r="D50" s="5" t="s">
         <v>3</v>
       </c>
@@ -2076,15 +1420,13 @@
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>CharlotteHughes4109283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>charlottehughes4109283756@gmail.com</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C51" s="8"/>
       <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
@@ -2096,15 +1438,13 @@
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>EthanFlores5032984716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>ethanflores5032984716@gmail.com</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C52" s="8"/>
       <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
@@ -2116,15 +1456,13 @@
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>AbigailSimmons3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>abigailsimmons3201948576@gmail.com</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C53" s="8"/>
       <c r="D53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2136,15 +1474,13 @@
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>JacksonCole3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>jacksoncole3201489576@gmail.com</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C54" s="8"/>
       <c r="D54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2156,15 +1492,13 @@
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>MiaLong4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>mialong4019283756@gmail.com</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="5" t="s">
         <v>3</v>
       </c>
@@ -2176,15 +1510,13 @@
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>SamuelBarnes5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>samuelbarnes5901834726@gmail.com</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C56" s="8"/>
       <c r="D56" s="5" t="s">
         <v>3</v>
       </c>
@@ -2196,15 +1528,13 @@
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>HarperFisher3209481576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>harperfisher3209481576@gmail.com</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C57" s="8"/>
       <c r="D57" s="5" t="s">
         <v>3</v>
       </c>
@@ -2216,15 +1546,13 @@
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>JosephEllis4902183756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>josephellis4902183756@gmail.com</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C58" s="8"/>
       <c r="D58" s="5" t="s">
         <v>3</v>
       </c>
@@ -2236,15 +1564,13 @@
     <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>ZoeHoward4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>zoehoward4302987516@gmail.com</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C59" s="8"/>
       <c r="D59" s="5" t="s">
         <v>3</v>
       </c>
@@ -2256,15 +1582,13 @@
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>ElijahWarren2193845076@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>elijahwarren2193845076@gmail.com</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C60" s="8"/>
       <c r="D60" s="5" t="s">
         <v>3</v>
       </c>
@@ -2276,15 +1600,13 @@
     <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>HannahRussell4201938576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>hannahrussell4201938576@gmail.com</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C61" s="8"/>
       <c r="D61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2296,15 +1618,13 @@
     <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>MateoMyers3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>mateomyers3401928576@gmail.com</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C62" s="8"/>
       <c r="D62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2316,15 +1636,13 @@
     <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>LaylaFox5091834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>laylafox5091834726@gmail.com</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C63" s="8"/>
       <c r="D63" s="5" t="s">
         <v>3</v>
       </c>
@@ -2336,15 +1654,13 @@
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>DavidHamilton3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>davidhamilton3201948576@gmail.com</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C64" s="8"/>
       <c r="D64" s="5" t="s">
         <v>3</v>
       </c>
@@ -2356,15 +1672,13 @@
     <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>SofiaGriffin4021938576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>sofiagriffin4021938576@gmail.com</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>69</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C65" s="8"/>
       <c r="D65" s="5" t="s">
         <v>3</v>
       </c>
@@ -2376,15 +1690,13 @@
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="str">
         <f t="shared" ref="A66:A97" si="3">CONCATENATE(C66,"@gmail.com")</f>
-        <v>LeoHayes5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>leohayes5092384716@gmail.com</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C66" s="8"/>
       <c r="D66" s="5" t="s">
         <v>3</v>
       </c>
@@ -2396,15 +1708,13 @@
     <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>EmmaFord3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="4">LOWER(A67)</f>
-        <v>emmaford3201948576@gmail.com</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="5" t="s">
         <v>3</v>
       </c>
@@ -2416,15 +1726,13 @@
     <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>OwenGraham4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="4"/>
-        <v>owengraham4019283756@gmail.com</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C68" s="8"/>
       <c r="D68" s="5" t="s">
         <v>3</v>
       </c>
@@ -2436,15 +1744,13 @@
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>GraceSpencer2401938576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="4"/>
-        <v>gracespencer2401938576@gmail.com</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C69" s="8"/>
       <c r="D69" s="5" t="s">
         <v>3</v>
       </c>
@@ -2456,15 +1762,13 @@
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>DanielButler4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="4"/>
-        <v>danielbutler4302987516@gmail.com</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C70" s="8"/>
       <c r="D70" s="5" t="s">
         <v>3</v>
       </c>
@@ -2476,15 +1780,13 @@
     <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CamilaWatson2193845076@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="4"/>
-        <v>camilawatson2193845076@gmail.com</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>75</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C71" s="8"/>
       <c r="D71" s="5" t="s">
         <v>3</v>
       </c>
@@ -2496,15 +1798,13 @@
     <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>HarperBrooks5032984716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="4"/>
-        <v>harperbrooks5032984716@gmail.com</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C72" s="8"/>
       <c r="D72" s="5" t="s">
         <v>3</v>
       </c>
@@ -2516,15 +1816,13 @@
     <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>EthanChavez3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="4"/>
-        <v>ethanchavez3201489576@gmail.com</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C73" s="8"/>
       <c r="D73" s="5" t="s">
         <v>3</v>
       </c>
@@ -2536,15 +1834,13 @@
     <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>OliviaSanders4201938576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="4"/>
-        <v>oliviasanders4201938576@gmail.com</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>78</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C74" s="8"/>
       <c r="D74" s="5" t="s">
         <v>3</v>
       </c>
@@ -2556,15 +1852,13 @@
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>WilliamJenkins5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="4"/>
-        <v>williamjenkins5092384716@gmail.com</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>79</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C75" s="8"/>
       <c r="D75" s="5" t="s">
         <v>3</v>
       </c>
@@ -2576,15 +1870,13 @@
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>ScarlettWood3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="4"/>
-        <v>scarlettwood3201948576@gmail.com</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>80</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C76" s="8"/>
       <c r="D76" s="5" t="s">
         <v>3</v>
       </c>
@@ -2596,15 +1888,13 @@
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>JamesCruz4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
-        <v>jamescruz4019283756@gmail.com</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C77" s="8"/>
       <c r="D77" s="5" t="s">
         <v>3</v>
       </c>
@@ -2616,15 +1906,13 @@
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>IsabellaMurray3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
-        <v>isabellamurray3401928576@gmail.com</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C78" s="8"/>
       <c r="D78" s="5" t="s">
         <v>3</v>
       </c>
@@ -2636,15 +1924,13 @@
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>LucasTucker5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
-        <v>lucastucker5901834726@gmail.com</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C79" s="8"/>
       <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
@@ -2656,15 +1942,13 @@
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MiaReed4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
-        <v>miareed4302987516@gmail.com</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C80" s="8"/>
       <c r="D80" s="5" t="s">
         <v>3</v>
       </c>
@@ -2676,15 +1960,13 @@
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MichaelSimmons3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
-        <v>michaelsimmons3201489576@gmail.com</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C81" s="8"/>
       <c r="D81" s="5" t="s">
         <v>3</v>
       </c>
@@ -2696,15 +1978,13 @@
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>CharlotteWatson5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
-        <v>charlottewatson5039284716@gmail.com</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>86</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C82" s="8"/>
       <c r="D82" s="5" t="s">
         <v>3</v>
       </c>
@@ -2716,15 +1996,13 @@
     <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>MasonFoster3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
-        <v>masonfoster3201948576@gmail.com</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>87</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C83" s="8"/>
       <c r="D83" s="5" t="s">
         <v>3</v>
       </c>
@@ -2736,15 +2014,13 @@
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AriaGarcia5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
-        <v>ariagarcia5092384716@gmail.com</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C84" s="8"/>
       <c r="D84" s="5" t="s">
         <v>3</v>
       </c>
@@ -2756,15 +2032,13 @@
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>ElijahRamos3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
-        <v>elijahramos3201489576@gmail.com</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>89</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C85" s="8"/>
       <c r="D85" s="5" t="s">
         <v>3</v>
       </c>
@@ -2776,15 +2050,13 @@
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AmeliaPerry4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
-        <v>ameliaperry4019283756@gmail.com</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>90</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C86" s="8"/>
       <c r="D86" s="5" t="s">
         <v>3</v>
       </c>
@@ -2796,15 +2068,13 @@
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>LucasPeterson3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
-        <v>lucaspeterson3401928576@gmail.com</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>91</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C87" s="8"/>
       <c r="D87" s="5" t="s">
         <v>3</v>
       </c>
@@ -2816,15 +2086,13 @@
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>OliviaBarnes5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
-        <v>oliviabarnes5901834726@gmail.com</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>92</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C88" s="8"/>
       <c r="D88" s="5" t="s">
         <v>3</v>
       </c>
@@ -2836,15 +2104,13 @@
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AidenHarris3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
-        <v>aidenharris3201489576@gmail.com</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>93</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C89" s="8"/>
       <c r="D89" s="5" t="s">
         <v>3</v>
       </c>
@@ -2856,15 +2122,13 @@
     <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>SophiaLong4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
-        <v>sophialong4302987516@gmail.com</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C90" s="8"/>
       <c r="D90" s="5" t="s">
         <v>3</v>
       </c>
@@ -2876,15 +2140,13 @@
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>JamesReed2193845076@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
-        <v>jamesreed2193845076@gmail.com</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C91" s="8"/>
       <c r="D91" s="5" t="s">
         <v>3</v>
       </c>
@@ -2896,15 +2158,13 @@
     <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>ChloeHayes5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
-        <v>chloehayes5039284716@gmail.com</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C92" s="8"/>
       <c r="D92" s="5" t="s">
         <v>3</v>
       </c>
@@ -2916,15 +2176,13 @@
     <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>EthanFoster3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
-        <v>ethanfoster3201948576@gmail.com</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C93" s="8"/>
       <c r="D93" s="5" t="s">
         <v>3</v>
       </c>
@@ -2936,15 +2194,13 @@
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>GraceClark5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
-        <v>graceclark5092384716@gmail.com</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C94" s="8"/>
       <c r="D94" s="5" t="s">
         <v>3</v>
       </c>
@@ -2956,15 +2212,13 @@
     <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>LiamRivera3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
-        <v>liamrivera3201489576@gmail.com</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>99</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C95" s="8"/>
       <c r="D95" s="5" t="s">
         <v>3</v>
       </c>
@@ -2976,15 +2230,13 @@
     <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>HarperCook4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
-        <v>harpercook4019283756@gmail.com</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C96" s="8"/>
       <c r="D96" s="5" t="s">
         <v>3</v>
       </c>
@@ -2996,15 +2248,13 @@
     <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>BenjaminRichardson3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
-        <v>benjaminrichardson3401928576@gmail.com</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C97" s="8"/>
       <c r="D97" s="5" t="s">
         <v>3</v>
       </c>
@@ -3016,15 +2266,13 @@
     <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="str">
         <f t="shared" ref="A98:A129" si="5">CONCATENATE(C98,"@gmail.com")</f>
-        <v>ZoeBell5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
-        <v>zoebell5901834726@gmail.com</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C98" s="8"/>
       <c r="D98" s="5" t="s">
         <v>3</v>
       </c>
@@ -3036,15 +2284,13 @@
     <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>DavidHughes4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
-        <v>davidhughes4302987516@gmail.com</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C99" s="8"/>
       <c r="D99" s="5" t="s">
         <v>3</v>
       </c>
@@ -3056,15 +2302,13 @@
     <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>EmmaGreen3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
-        <v>emmagreen3201948576@gmail.com</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>104</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C100" s="8"/>
       <c r="D100" s="5" t="s">
         <v>3</v>
       </c>
@@ -3076,15 +2320,13 @@
     <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>MateoFoster5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
-        <v>mateofoster5039284716@gmail.com</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C101" s="8"/>
       <c r="D101" s="5" t="s">
         <v>3</v>
       </c>
@@ -3096,15 +2338,13 @@
     <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>MiaAdams5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
-        <v>miaadams5092384716@gmail.com</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>106</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C102" s="8"/>
       <c r="D102" s="5" t="s">
         <v>3</v>
       </c>
@@ -3116,15 +2356,13 @@
     <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>OliverWood3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
-        <v>oliverwood3201489576@gmail.com</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>107</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C103" s="8"/>
       <c r="D103" s="5" t="s">
         <v>3</v>
       </c>
@@ -3136,15 +2374,13 @@
     <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>AvaBaker4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
-        <v>avabaker4019283756@gmail.com</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>108</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C104" s="8"/>
       <c r="D104" s="5" t="s">
         <v>3</v>
       </c>
@@ -3156,15 +2392,13 @@
     <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>EthanFlores3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
-        <v>ethanflores3401928576@gmail.com</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C105" s="8"/>
       <c r="D105" s="5" t="s">
         <v>3</v>
       </c>
@@ -3176,15 +2410,13 @@
     <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>LilyNelson5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
-        <v>lilynelson5901834726@gmail.com</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C106" s="8"/>
       <c r="D106" s="5" t="s">
         <v>3</v>
       </c>
@@ -3196,15 +2428,13 @@
     <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>NoahPerry4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
-        <v>noahperry4302987516@gmail.com</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>111</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C107" s="8"/>
       <c r="D107" s="5" t="s">
         <v>3</v>
       </c>
@@ -3216,15 +2446,13 @@
     <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>SophiaMorris3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
-        <v>sophiamorris3201489576@gmail.com</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C108" s="8"/>
       <c r="D108" s="5" t="s">
         <v>3</v>
       </c>
@@ -3236,15 +2464,13 @@
     <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>JamesCruz5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
-        <v>jamescruz5039284716@gmail.com</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>113</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C109" s="8"/>
       <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
@@ -3256,15 +2482,13 @@
     <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>HarperReed5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
-        <v>harperreed5092384716@gmail.com</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>114</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C110" s="8"/>
       <c r="D110" s="5" t="s">
         <v>3</v>
       </c>
@@ -3276,15 +2500,13 @@
     <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>MasonBell3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
-        <v>masonbell3201948576@gmail.com</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C111" s="8"/>
       <c r="D111" s="5" t="s">
         <v>3</v>
       </c>
@@ -3296,15 +2518,13 @@
     <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>OliviaWright4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
-        <v>oliviawright4019283756@gmail.com</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>116</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C112" s="8"/>
       <c r="D112" s="5" t="s">
         <v>3</v>
       </c>
@@ -3316,15 +2536,13 @@
     <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>JacksonWatson3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
-        <v>jacksonwatson3401928576@gmail.com</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C113" s="8"/>
       <c r="D113" s="5" t="s">
         <v>3</v>
       </c>
@@ -3336,15 +2554,13 @@
     <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>GraceCooper5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
-        <v>gracecooper5901834726@gmail.com</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>118</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C114" s="8"/>
       <c r="D114" s="5" t="s">
         <v>3</v>
       </c>
@@ -3356,15 +2572,13 @@
     <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>LiamPeterson4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
-        <v>liampeterson4302987516@gmail.com</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>119</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C115" s="8"/>
       <c r="D115" s="5" t="s">
         <v>3</v>
       </c>
@@ -3376,15 +2590,13 @@
     <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>ZoeMurphy3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
-        <v>zoemurphy3201489576@gmail.com</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C116" s="8"/>
       <c r="D116" s="5" t="s">
         <v>3</v>
       </c>
@@ -3396,15 +2608,13 @@
     <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>MateoFoster5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="4"/>
-        <v>mateofoster5039284716@gmail.com</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C117" s="8"/>
       <c r="D117" s="5" t="s">
         <v>3</v>
       </c>
@@ -3416,15 +2626,13 @@
     <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>MiaHarris5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="4"/>
-        <v>miaharris5092384716@gmail.com</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C118" s="8"/>
       <c r="D118" s="5" t="s">
         <v>3</v>
       </c>
@@ -3436,15 +2644,13 @@
     <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>OliverRichardson3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="4"/>
-        <v>oliverrichardson3201948576@gmail.com</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C119" s="8"/>
       <c r="D119" s="5" t="s">
         <v>3</v>
       </c>
@@ -3456,15 +2662,13 @@
     <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>AriaDiaz4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="4"/>
-        <v>ariadiaz4019283756@gmail.com</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C120" s="8"/>
       <c r="D120" s="5" t="s">
         <v>3</v>
       </c>
@@ -3476,15 +2680,13 @@
     <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>EthanMorgan3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="4"/>
-        <v>ethanmorgan3401928576@gmail.com</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>124</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C121" s="8"/>
       <c r="D121" s="5" t="s">
         <v>3</v>
       </c>
@@ -3496,15 +2698,13 @@
     <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>AmeliaGreen5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="4"/>
-        <v>ameliagreen5901834726@gmail.com</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C122" s="8"/>
       <c r="D122" s="5" t="s">
         <v>3</v>
       </c>
@@ -3516,15 +2716,13 @@
     <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>NoahLong4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="4"/>
-        <v>noahlong4302987516@gmail.com</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>126</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C123" s="8"/>
       <c r="D123" s="5" t="s">
         <v>3</v>
       </c>
@@ -3536,15 +2734,13 @@
     <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>ChloeWood3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="4"/>
-        <v>chloewood3201489576@gmail.com</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>127</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C124" s="8"/>
       <c r="D124" s="5" t="s">
         <v>3</v>
       </c>
@@ -3556,15 +2752,13 @@
     <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>JamesSimmons5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="4"/>
-        <v>jamessimmons5039284716@gmail.com</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C125" s="8"/>
       <c r="D125" s="5" t="s">
         <v>3</v>
       </c>
@@ -3576,15 +2770,13 @@
     <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>HarperClark5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="4"/>
-        <v>harperclark5092384716@gmail.com</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>129</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C126" s="8"/>
       <c r="D126" s="5" t="s">
         <v>3</v>
       </c>
@@ -3596,15 +2788,13 @@
     <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>LiamMorris3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="4"/>
-        <v>liammorris3201948576@gmail.com</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>130</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C127" s="8"/>
       <c r="D127" s="5" t="s">
         <v>3</v>
       </c>
@@ -3616,15 +2806,13 @@
     <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>OliviaSanders4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="4"/>
-        <v>oliviasanders4019283756@gmail.com</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>131</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C128" s="8"/>
       <c r="D128" s="5" t="s">
         <v>3</v>
       </c>
@@ -3636,15 +2824,13 @@
     <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>DavidPerry3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="4"/>
-        <v>davidperry3401928576@gmail.com</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C129" s="8"/>
       <c r="D129" s="5" t="s">
         <v>3</v>
       </c>
@@ -3656,15 +2842,13 @@
     <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="str">
         <f t="shared" ref="A130:A161" si="6">CONCATENATE(C130,"@gmail.com")</f>
-        <v>ZoeCooper5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="4"/>
-        <v>zoecooper5901834726@gmail.com</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>133</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C130" s="8"/>
       <c r="D130" s="5" t="s">
         <v>3</v>
       </c>
@@ -3676,15 +2860,13 @@
     <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>EthanWatson4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" ref="B131:B189" si="7">LOWER(A131)</f>
-        <v>ethanwatson4302987516@gmail.com</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>134</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C131" s="8"/>
       <c r="D131" s="5" t="s">
         <v>3</v>
       </c>
@@ -3696,15 +2878,13 @@
     <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>LilyReed3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="7"/>
-        <v>lilyreed3201489576@gmail.com</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>135</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C132" s="8"/>
       <c r="D132" s="5" t="s">
         <v>3</v>
       </c>
@@ -3716,15 +2896,13 @@
     <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>JacksonPeterson5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="7"/>
-        <v>jacksonpeterson5039284716@gmail.com</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C133" s="8"/>
       <c r="D133" s="5" t="s">
         <v>3</v>
       </c>
@@ -3736,15 +2914,13 @@
     <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>EmmaFlores5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="7"/>
-        <v>emmaflores5092384716@gmail.com</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>137</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C134" s="8"/>
       <c r="D134" s="5" t="s">
         <v>3</v>
       </c>
@@ -3756,15 +2932,13 @@
     <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AlexanderRichardson3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="7"/>
-        <v>alexanderrichardson3201948576@gmail.com</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>138</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C135" s="8"/>
       <c r="D135" s="5" t="s">
         <v>3</v>
       </c>
@@ -3776,15 +2950,13 @@
     <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AmeliaCook4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="7"/>
-        <v>ameliacook4019283756@gmail.com</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>139</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C136" s="8"/>
       <c r="D136" s="5" t="s">
         <v>3</v>
       </c>
@@ -3796,15 +2968,13 @@
     <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AidenMurphy3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="7"/>
-        <v>aidenmurphy3401928576@gmail.com</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C137" s="8"/>
       <c r="D137" s="5" t="s">
         <v>3</v>
       </c>
@@ -3816,15 +2986,13 @@
     <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>GraceFoster5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="7"/>
-        <v>gracefoster5901834726@gmail.com</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>141</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C138" s="8"/>
       <c r="D138" s="5" t="s">
         <v>3</v>
       </c>
@@ -3836,15 +3004,13 @@
     <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>BenjaminWood4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="7"/>
-        <v>benjaminwood4302987516@gmail.com</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>142</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C139" s="8"/>
       <c r="D139" s="5" t="s">
         <v>3</v>
       </c>
@@ -3856,15 +3022,13 @@
     <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>ZoeNelson3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="7"/>
-        <v>zoenelson3201489576@gmail.com</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>143</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C140" s="8"/>
       <c r="D140" s="5" t="s">
         <v>3</v>
       </c>
@@ -3876,15 +3040,13 @@
     <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>MiaMorris5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="7"/>
-        <v>miamorris5039284716@gmail.com</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C141" s="8"/>
       <c r="D141" s="5" t="s">
         <v>3</v>
       </c>
@@ -3896,15 +3058,13 @@
     <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>EthanDiaz5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="7"/>
-        <v>ethandiaz5092384716@gmail.com</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>145</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C142" s="8"/>
       <c r="D142" s="5" t="s">
         <v>3</v>
       </c>
@@ -3916,15 +3076,13 @@
     <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>LucasGreen3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="7"/>
-        <v>lucasgreen3201948576@gmail.com</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>146</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C143" s="8"/>
       <c r="D143" s="5" t="s">
         <v>3</v>
       </c>
@@ -3936,15 +3094,13 @@
     <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>ChloeSanders4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="7"/>
-        <v>chloesanders4019283756@gmail.com</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>147</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C144" s="8"/>
       <c r="D144" s="5" t="s">
         <v>3</v>
       </c>
@@ -3956,15 +3112,13 @@
     <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>NoahCooper3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="7"/>
-        <v>noahcooper3401928576@gmail.com</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>148</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C145" s="8"/>
       <c r="D145" s="5" t="s">
         <v>3</v>
       </c>
@@ -3976,15 +3130,13 @@
     <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>LilyBell5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="7"/>
-        <v>lilybell5901834726@gmail.com</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C146" s="8"/>
       <c r="D146" s="5" t="s">
         <v>3</v>
       </c>
@@ -3996,15 +3148,13 @@
     <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>JamesWatson4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="7"/>
-        <v>jameswatson4302987516@gmail.com</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>150</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C147" s="8"/>
       <c r="D147" s="5" t="s">
         <v>3</v>
       </c>
@@ -4016,15 +3166,13 @@
     <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>SophiaPerry3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="7"/>
-        <v>sophiaperry3201489576@gmail.com</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>151</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C148" s="8"/>
       <c r="D148" s="5" t="s">
         <v>3</v>
       </c>
@@ -4036,15 +3184,13 @@
     <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>LiamClark5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="7"/>
-        <v>liamclark5039284716@gmail.com</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>152</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C149" s="8"/>
       <c r="D149" s="5" t="s">
         <v>3</v>
       </c>
@@ -4056,15 +3202,13 @@
     <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>HarperNelson5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="7"/>
-        <v>harpernelson5092384716@gmail.com</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>153</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C150" s="8"/>
       <c r="D150" s="5" t="s">
         <v>3</v>
       </c>
@@ -4076,15 +3220,13 @@
     <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>EthanRichardson3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="7"/>
-        <v>ethanrichardson3201948576@gmail.com</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C151" s="8"/>
       <c r="D151" s="5" t="s">
         <v>3</v>
       </c>
@@ -4096,15 +3238,13 @@
     <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AvaMurphy4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="7"/>
-        <v>avamurphy4019283756@gmail.com</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>155</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C152" s="8"/>
       <c r="D152" s="5" t="s">
         <v>3</v>
       </c>
@@ -4116,15 +3256,13 @@
     <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AlexanderLong3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="7"/>
-        <v>alexanderlong3401928576@gmail.com</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C153" s="8"/>
       <c r="D153" s="5" t="s">
         <v>3</v>
       </c>
@@ -4136,15 +3274,13 @@
     <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>GraceMorris5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="7"/>
-        <v>gracemorris5901834726@gmail.com</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>157</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C154" s="8"/>
       <c r="D154" s="5" t="s">
         <v>3</v>
       </c>
@@ -4156,15 +3292,13 @@
     <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>NoahGreen4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="7"/>
-        <v>noahgreen4302987516@gmail.com</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>158</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C155" s="8"/>
       <c r="D155" s="5" t="s">
         <v>3</v>
       </c>
@@ -4176,15 +3310,13 @@
     <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>MiaCook3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="7"/>
-        <v>miacook3201489576@gmail.com</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>159</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C156" s="8"/>
       <c r="D156" s="5" t="s">
         <v>3</v>
       </c>
@@ -4196,15 +3328,13 @@
     <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>ZoeFoster5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="7"/>
-        <v>zoefoster5039284716@gmail.com</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C157" s="8"/>
       <c r="D157" s="5" t="s">
         <v>3</v>
       </c>
@@ -4216,15 +3346,13 @@
     <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>LucasClark5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="7"/>
-        <v>lucasclark5092384716@gmail.com</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>161</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C158" s="8"/>
       <c r="D158" s="5" t="s">
         <v>3</v>
       </c>
@@ -4236,15 +3364,13 @@
     <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>AmeliaSanders3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="7"/>
-        <v>ameliasanders3201948576@gmail.com</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>162</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C159" s="8"/>
       <c r="D159" s="5" t="s">
         <v>3</v>
       </c>
@@ -4256,15 +3382,13 @@
     <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>EthanRichardson4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="7"/>
-        <v>ethanrichardson4019283756@gmail.com</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>163</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C160" s="8"/>
       <c r="D160" s="5" t="s">
         <v>3</v>
       </c>
@@ -4276,15 +3400,13 @@
     <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>ChloeNelson3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="7"/>
-        <v>chloenelson3401928576@gmail.com</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>164</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C161" s="8"/>
       <c r="D161" s="5" t="s">
         <v>3</v>
       </c>
@@ -4296,15 +3418,13 @@
     <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="str">
         <f t="shared" ref="A162:A189" si="8">CONCATENATE(C162,"@gmail.com")</f>
-        <v>JamesMorris5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="7"/>
-        <v>jamesmorris5901834726@gmail.com</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>165</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C162" s="8"/>
       <c r="D162" s="5" t="s">
         <v>3</v>
       </c>
@@ -4316,15 +3436,13 @@
     <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>HarperPerry4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="7"/>
-        <v>harperperry4302987516@gmail.com</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>166</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C163" s="8"/>
       <c r="D163" s="5" t="s">
         <v>3</v>
       </c>
@@ -4336,15 +3454,13 @@
     <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>LiamDiaz3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="7"/>
-        <v>liamdiaz3201489576@gmail.com</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>167</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C164" s="8"/>
       <c r="D164" s="5" t="s">
         <v>3</v>
       </c>
@@ -4356,15 +3472,13 @@
     <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>OliviaWood5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="7"/>
-        <v>oliviawood5039284716@gmail.com</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C165" s="8"/>
       <c r="D165" s="5" t="s">
         <v>3</v>
       </c>
@@ -4376,15 +3490,13 @@
     <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>DavidNelson5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="7"/>
-        <v>davidnelson5092384716@gmail.com</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>169</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C166" s="8"/>
       <c r="D166" s="5" t="s">
         <v>3</v>
       </c>
@@ -4396,15 +3508,13 @@
     <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>GraceFoster3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="7"/>
-        <v>gracefoster3201948576@gmail.com</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>170</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C167" s="8"/>
       <c r="D167" s="5" t="s">
         <v>3</v>
       </c>
@@ -4416,15 +3526,13 @@
     <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>LucasMurphy4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="7"/>
-        <v>lucasmurphy4019283756@gmail.com</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>171</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C168" s="8"/>
       <c r="D168" s="5" t="s">
         <v>3</v>
       </c>
@@ -4436,15 +3544,13 @@
     <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>MiaClark3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="7"/>
-        <v>miaclark3401928576@gmail.com</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>172</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C169" s="8"/>
       <c r="D169" s="5" t="s">
         <v>3</v>
       </c>
@@ -4456,15 +3562,13 @@
     <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>AlexanderPerry5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="7"/>
-        <v>alexanderperry5901834726@gmail.com</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>173</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C170" s="8"/>
       <c r="D170" s="5" t="s">
         <v>3</v>
       </c>
@@ -4476,15 +3580,13 @@
     <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>AriaNelson4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="7"/>
-        <v>arianelson4302987516@gmail.com</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>174</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C171" s="8"/>
       <c r="D171" s="5" t="s">
         <v>3</v>
       </c>
@@ -4496,15 +3598,13 @@
     <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>OliverFoster3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="7"/>
-        <v>oliverfoster3201489576@gmail.com</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C172" s="8"/>
       <c r="D172" s="5" t="s">
         <v>3</v>
       </c>
@@ -4516,15 +3616,13 @@
     <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>HarperWood5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="7"/>
-        <v>harperwood5039284716@gmail.com</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>176</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C173" s="8"/>
       <c r="D173" s="5" t="s">
         <v>3</v>
       </c>
@@ -4536,15 +3634,13 @@
     <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>EmmaMurphy5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="7"/>
-        <v>emmamurphy5092384716@gmail.com</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>177</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C174" s="8"/>
       <c r="D174" s="5" t="s">
         <v>3</v>
       </c>
@@ -4556,15 +3652,13 @@
     <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>NoahClark3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="7"/>
-        <v>noahclark3201948576@gmail.com</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>178</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C175" s="8"/>
       <c r="D175" s="5" t="s">
         <v>3</v>
       </c>
@@ -4576,15 +3670,13 @@
     <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>SophiaPerry4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="7"/>
-        <v>sophiaperry4019283756@gmail.com</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C176" s="8"/>
       <c r="D176" s="5" t="s">
         <v>3</v>
       </c>
@@ -4596,15 +3688,13 @@
     <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>LiamNelson3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="7"/>
-        <v>liamnelson3401928576@gmail.com</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>180</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C177" s="8"/>
       <c r="D177" s="5" t="s">
         <v>3</v>
       </c>
@@ -4616,15 +3706,13 @@
     <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>ChloeDiaz5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="7"/>
-        <v>chloediaz5901834726@gmail.com</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C178" s="8"/>
       <c r="D178" s="5" t="s">
         <v>3</v>
       </c>
@@ -4636,15 +3724,13 @@
     <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>AidenWood4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="7"/>
-        <v>aidenwood4302987516@gmail.com</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>182</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C179" s="8"/>
       <c r="D179" s="5" t="s">
         <v>3</v>
       </c>
@@ -4656,15 +3742,13 @@
     <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>GraceFoster3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="7"/>
-        <v>gracefoster3201489576@gmail.com</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C180" s="8"/>
       <c r="D180" s="5" t="s">
         <v>3</v>
       </c>
@@ -4676,15 +3760,13 @@
     <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>JamesMurphy5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="7"/>
-        <v>jamesmurphy5039284716@gmail.com</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>184</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C181" s="8"/>
       <c r="D181" s="5" t="s">
         <v>3</v>
       </c>
@@ -4696,15 +3778,13 @@
     <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>MiaNelson5092384716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="7"/>
-        <v>mianelson5092384716@gmail.com</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>185</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C182" s="8"/>
       <c r="D182" s="5" t="s">
         <v>3</v>
       </c>
@@ -4716,15 +3796,13 @@
     <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>LucasClark3201948576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="7"/>
-        <v>lucasclark3201948576@gmail.com</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>186</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C183" s="8"/>
       <c r="D183" s="5" t="s">
         <v>3</v>
       </c>
@@ -4736,15 +3814,13 @@
     <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>AmeliaPerry4019283756@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="7"/>
-        <v>ameliaperry4019283756@gmail.com</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>90</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C184" s="8"/>
       <c r="D184" s="5" t="s">
         <v>3</v>
       </c>
@@ -4756,15 +3832,13 @@
     <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>EthanDiaz3401928576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="7"/>
-        <v>ethandiaz3401928576@gmail.com</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>187</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C185" s="8"/>
       <c r="D185" s="5" t="s">
         <v>3</v>
       </c>
@@ -4776,15 +3850,13 @@
     <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>OliviaMorris5901834726@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="7"/>
-        <v>oliviamorris5901834726@gmail.com</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C186" s="8"/>
       <c r="D186" s="5" t="s">
         <v>3</v>
       </c>
@@ -4796,15 +3868,13 @@
     <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>DavidFoster4302987516@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="7"/>
-        <v>davidfoster4302987516@gmail.com</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C187" s="8"/>
       <c r="D187" s="5" t="s">
         <v>3</v>
       </c>
@@ -4816,15 +3886,13 @@
     <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>GraceClark3201489576@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="7"/>
-        <v>graceclark3201489576@gmail.com</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C188" s="8"/>
       <c r="D188" s="5" t="s">
         <v>3</v>
       </c>
@@ -4836,15 +3904,13 @@
     <row r="189" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>LiamPerry5039284716@gmail.com</v>
+        <v>@gmail.com</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="7"/>
-        <v>liamperry5039284716@gmail.com</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>191</v>
-      </c>
+        <v>@gmail.com</v>
+      </c>
+      <c r="C189" s="8"/>
       <c r="D189" s="5" t="s">
         <v>3</v>
       </c>
@@ -5070,6 +4136,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17ee5e9d-7dd0-4138-b626-d18a217dfc0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100207CB55DDAC04B44A9A6157011E35436" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73e72fb3e3acd3c2d00ea4d791350d28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17ee5e9d-7dd0-4138-b626-d18a217dfc0e" xmlns:ns4="9dba7bc1-70f0-4d15-88e4-eb673480444d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="897882e7c42c80cd35b3dcc4078000ee" ns3:_="" ns4:_="">
     <xsd:import namespace="17ee5e9d-7dd0-4138-b626-d18a217dfc0e"/>
@@ -5316,38 +4399,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17ee5e9d-7dd0-4138-b626-d18a217dfc0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D101B2F-DEB9-4CF7-884A-484ABBA57660}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723E587B-4461-47AE-A01E-FAEEBFE66249}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="17ee5e9d-7dd0-4138-b626-d18a217dfc0e"/>
-    <ds:schemaRef ds:uri="9dba7bc1-70f0-4d15-88e4-eb673480444d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5370,9 +4425,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723E587B-4461-47AE-A01E-FAEEBFE66249}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D101B2F-DEB9-4CF7-884A-484ABBA57660}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="17ee5e9d-7dd0-4138-b626-d18a217dfc0e"/>
+    <ds:schemaRef ds:uri="9dba7bc1-70f0-4d15-88e4-eb673480444d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>